--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170568.6446742287</v>
+        <v>337405.6248298426</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631046</v>
+        <v>12244790.98632948</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809159</v>
+        <v>393801.3664809165</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8972703.422514398</v>
+        <v>9033303.193230145</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -668,7 +668,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>242.3991116663073</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>24.76484596498756</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>28.11631013281968</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>28.11631013281968</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>28.11631013281968</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>169.7055842491763</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>24.76484596498756</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>226.1794700904782</v>
+        <v>216.9462049119571</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>292.9082206543434</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>292.9082206543434</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>292.9082206543434</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
         <v>93.11323406457203</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
@@ -1032,13 +1032,13 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>114.5431238878141</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
         <v>138.2959597602405</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>134.4070802146381</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>202.7113143783638</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>248.3473402885391</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>90.40013928040803</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>81.83498525794187</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>36.20848765291353</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>1.495586822102737</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>108.7338525045199</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>130.0464974647467</v>
+        <v>51.58543740429452</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>147.1510840463093</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>210.6945758105465</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5903550446894</v>
+        <v>173.6975221639358</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>1.495586822102511</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439293</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>96.44420510686122</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7289536099872</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>350.1519392541159</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026559</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>103.1368198100099</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>121.5805385097623</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459097</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>108.7338525045199</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316328</v>
+        <v>20.98701309670905</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.51689734306663</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>60.15466974967025</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2767,7 +2767,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>146.7855775533109</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.79871210679592</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3004,7 +3004,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523053</v>
+        <v>178.1668213893226</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5782361172335</v>
+        <v>99.58155764928891</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160353</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.4685551105455</v>
+        <v>160.0456688475628</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>132.2608181713048</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448715</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705895</v>
+        <v>36.47073954407624</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334168</v>
+        <v>158.3362093704341</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2313529237194</v>
+        <v>230.8084666607367</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7080026420591</v>
+        <v>267.2851163790764</v>
       </c>
       <c r="V34" t="n">
-        <v>243.2197513454117</v>
+        <v>268.7968650824291</v>
       </c>
       <c r="W34" t="n">
-        <v>236.4292784165725</v>
+        <v>262.0063921535898</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4636562160133</v>
+        <v>230.0407699530306</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.4047392545157</v>
+        <v>213.981852991533</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3323,7 @@
         <v>220.0967589369122</v>
       </c>
       <c r="V35" t="n">
-        <v>318.2399193523734</v>
+        <v>318.2399193523735</v>
       </c>
       <c r="W35" t="n">
         <v>356.7528348300169</v>
@@ -3512,10 +3512,10 @@
         <v>386.0425690809814</v>
       </c>
       <c r="F38" t="n">
-        <v>385.1983386198539</v>
+        <v>385.1983386198541</v>
       </c>
       <c r="G38" t="n">
-        <v>364.6210704138062</v>
+        <v>364.6210704138061</v>
       </c>
       <c r="H38" t="n">
         <v>259.2150933680659</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C40" t="n">
         <v>134.5782361172335</v>
@@ -3667,7 +3667,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E40" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F40" t="n">
         <v>134.4685551105455</v>
@@ -3679,7 +3679,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>183.0417138731735</v>
       </c>
       <c r="U44" t="n">
-        <v>220.0967589369122</v>
+        <v>220.0967589369123</v>
       </c>
       <c r="V44" t="n">
         <v>318.2399193523734</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>530.724824632631</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>507.8644986863352</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>488.6122819117396</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>466.6757461000012</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>41.55156428940137</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="J2" t="n">
-        <v>30.08445184211706</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="K2" t="n">
-        <v>30.08445184211706</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="L2" t="n">
-        <v>30.08445184211706</v>
+        <v>551.757616670023</v>
       </c>
       <c r="M2" t="n">
-        <v>57.91959887360855</v>
+        <v>1062.262327420792</v>
       </c>
       <c r="N2" t="n">
-        <v>57.91959887360855</v>
+        <v>1572.767038171561</v>
       </c>
       <c r="O2" t="n">
-        <v>57.91959887360855</v>
+        <v>1606.55981645852</v>
       </c>
       <c r="P2" t="n">
-        <v>85.75474590510004</v>
+        <v>1606.55981645852</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.75474590510004</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>1958.278001835843</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>1958.278001835843</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>1713.430414294119</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1355.940999420368</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>959.5496497207154</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>951.8700549288667</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>950.5731889241611</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.26430073485544</v>
+        <v>608.3763969507092</v>
       </c>
       <c r="C3" t="n">
-        <v>2.249304810625575</v>
+        <v>490.870493468214</v>
       </c>
       <c r="D3" t="n">
-        <v>2.249304810625575</v>
+        <v>387.0305349834991</v>
       </c>
       <c r="E3" t="n">
-        <v>2.249304810625575</v>
+        <v>282.3286012564363</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>94.62899915694447</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="I3" t="n">
-        <v>9.695947772537416</v>
+        <v>48.6995488811659</v>
       </c>
       <c r="J3" t="n">
-        <v>37.5310948040289</v>
+        <v>48.6995488811659</v>
       </c>
       <c r="K3" t="n">
-        <v>65.36624183552038</v>
+        <v>559.2042596319349</v>
       </c>
       <c r="L3" t="n">
-        <v>65.36624183552038</v>
+        <v>559.2042596319349</v>
       </c>
       <c r="M3" t="n">
-        <v>84.63009349978725</v>
+        <v>559.2042596319349</v>
       </c>
       <c r="N3" t="n">
-        <v>84.63009349978725</v>
+        <v>1069.708970382704</v>
       </c>
       <c r="O3" t="n">
-        <v>84.63009349978725</v>
+        <v>1339.435825748995</v>
       </c>
       <c r="P3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1768.616289061018</v>
       </c>
       <c r="T3" t="n">
-        <v>84.0649272658043</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>84.0649272658043</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>1236.995018417599</v>
       </c>
       <c r="W3" t="n">
-        <v>55.66461400032987</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>55.66461400032987</v>
+        <v>876.9962950174796</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.26430073485544</v>
+        <v>737.303406370772</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.04993134157444</v>
+        <v>519.785729354204</v>
       </c>
       <c r="C4" t="n">
-        <v>59.04993134157444</v>
+        <v>519.785729354204</v>
       </c>
       <c r="D4" t="n">
-        <v>59.04993134157444</v>
+        <v>356.4689564809747</v>
       </c>
       <c r="E4" t="n">
-        <v>30.6496180761</v>
+        <v>356.4689564809747</v>
       </c>
       <c r="F4" t="n">
-        <v>30.6496180761</v>
+        <v>185.0491744110997</v>
       </c>
       <c r="G4" t="n">
-        <v>30.6496180761</v>
+        <v>185.0491744110997</v>
       </c>
       <c r="H4" t="n">
-        <v>30.6496180761</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="K4" t="n">
-        <v>28.95979943680427</v>
+        <v>267.7805071250913</v>
       </c>
       <c r="L4" t="n">
-        <v>56.79494646829576</v>
+        <v>520.9405192739903</v>
       </c>
       <c r="M4" t="n">
-        <v>56.79494646829576</v>
+        <v>912.126314244241</v>
       </c>
       <c r="N4" t="n">
-        <v>84.63009349978725</v>
+        <v>1289.617825120277</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4652405312787</v>
+        <v>1645.04595380004</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>1935.645165721941</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649876</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649876</v>
       </c>
       <c r="T4" t="n">
-        <v>84.0649272658043</v>
+        <v>2015.606682649876</v>
       </c>
       <c r="U4" t="n">
-        <v>84.0649272658043</v>
+        <v>1735.422234150181</v>
       </c>
       <c r="V4" t="n">
-        <v>59.04993134157444</v>
+        <v>1453.71076675821</v>
       </c>
       <c r="W4" t="n">
-        <v>59.04993134157444</v>
+        <v>1178.858362930722</v>
       </c>
       <c r="X4" t="n">
-        <v>59.04993134157444</v>
+        <v>936.2944663765276</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.04993134157444</v>
+        <v>709.9516980662696</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.1923106183159</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
-        <v>911.3319846720201</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D5" t="n">
-        <v>615.4650951221784</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>319.5982055723366</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>23.73131602249478</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>23.43265765234747</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>23.43265765234747</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>23.43265765234747</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>23.43265765234747</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>23.43265765234747</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L5" t="n">
-        <v>313.4117961001474</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M5" t="n">
-        <v>603.3909345479474</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>893.3700729957473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>893.3700729957473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1171.632882617374</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1171.632882617374</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.632882617374</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1171.632882617374</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1171.632882617374</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1171.632882617374</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1171.632882617374</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>1171.632882617374</v>
+        <v>1570.164993359136</v>
       </c>
       <c r="X5" t="n">
-        <v>1163.953287825525</v>
+        <v>1562.485398567287</v>
       </c>
       <c r="Y5" t="n">
-        <v>1162.656421820819</v>
+        <v>1157.148128522177</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>393.0703598819919</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>275.5644563994967</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>275.5644563994967</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>170.8625226724339</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>170.8625226724339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80875089003789</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>23.43265765234747</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>30.87930061425931</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>30.87930061425931</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>320.8584390620592</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>320.8584390620592</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>320.8584390620592</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>320.8584390620592</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O6" t="n">
-        <v>509.6552956370705</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="P6" t="n">
-        <v>799.6344340848705</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1089.61357253267</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.632882617374</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1171.632882617374</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1029.752946915052</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>844.9847508346885</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>844.9847508346885</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>648.4633736679057</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>532.7632485286995</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>393.0703598819919</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>677.2714693378631</v>
+        <v>595.8003524114347</v>
       </c>
       <c r="C7" t="n">
-        <v>505.2989062167791</v>
+        <v>423.8277892903507</v>
       </c>
       <c r="D7" t="n">
-        <v>505.2989062167791</v>
+        <v>423.8277892903507</v>
       </c>
       <c r="E7" t="n">
-        <v>339.0907003696327</v>
+        <v>423.8277892903507</v>
       </c>
       <c r="F7" t="n">
-        <v>167.2289261441931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2289261441931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>23.43265765234747</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>23.43265765234747</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43265765234747</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>23.43265765234747</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>23.43265765234747</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>313.4117961001474</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>603.3909345479474</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>893.3700729957473</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1171.632882617374</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.632882617374</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1124.594269304547</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1124.594269304547</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1124.594269304547</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.594269304547</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="V7" t="n">
-        <v>1124.594269304547</v>
+        <v>1529.72538981544</v>
       </c>
       <c r="W7" t="n">
-        <v>919.835365892058</v>
+        <v>1254.872985987953</v>
       </c>
       <c r="X7" t="n">
-        <v>677.2714693378631</v>
+        <v>1012.309089433758</v>
       </c>
       <c r="Y7" t="n">
-        <v>677.2714693378631</v>
+        <v>785.9663211235003</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>754.3794845092605</v>
+        <v>1029.323819803441</v>
       </c>
       <c r="C8" t="n">
-        <v>503.5235852279079</v>
+        <v>1006.463493857145</v>
       </c>
       <c r="D8" t="n">
-        <v>484.2713684533122</v>
+        <v>583.1708730421452</v>
       </c>
       <c r="E8" t="n">
-        <v>462.3348326415738</v>
+        <v>561.2343372304068</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>540.1505594602111</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>135.8114970496597</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1313.087264683184</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>1313.087264683184</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N8" t="n">
-        <v>1313.087264683184</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1313.087264683184</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1587.244713637749</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1587.244713637749</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W8" t="n">
-        <v>1587.244713637749</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X8" t="n">
-        <v>1579.5651188459</v>
+        <v>1450.469050099676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1174.227848800791</v>
+        <v>1449.172184094971</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273854</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>501.1445421254694</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M9" t="n">
-        <v>957.9304488282003</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N9" t="n">
-        <v>1414.716355530931</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>864.6359723245046</v>
+        <v>717.9063049747683</v>
       </c>
       <c r="C10" t="n">
-        <v>692.6634092034205</v>
+        <v>545.9337418536843</v>
       </c>
       <c r="D10" t="n">
-        <v>529.3466363301912</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E10" t="n">
-        <v>363.1384304830448</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>363.1384304830448</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1798.56100972851</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V10" t="n">
-        <v>1798.56100972851</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W10" t="n">
-        <v>1523.708605901023</v>
+        <v>1170.98927194953</v>
       </c>
       <c r="X10" t="n">
-        <v>1281.144709346828</v>
+        <v>1134.415041997092</v>
       </c>
       <c r="Y10" t="n">
-        <v>1054.80194103657</v>
+        <v>908.072273686834</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>347.2448971338088</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437226</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>106.0665896180283</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>106.0665896180283</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>106.0665896180283</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>1110.352691037087</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>2086.603749523787</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O11" t="n">
-        <v>2931.7483996746</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P11" t="n">
-        <v>3640.027678832527</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q11" t="n">
-        <v>4096.113158336711</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218613</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>3958.170370649445</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3734.712332502386</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V11" t="n">
-        <v>3412.119788885164</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W11" t="n">
-        <v>3410.609095125464</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X11" t="n">
-        <v>3033.78596754974</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020627</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>84.27338986437226</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>850.0778208732754</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M12" t="n">
-        <v>850.0778208732754</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N12" t="n">
-        <v>1892.961020444882</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.0436848709866</v>
+        <v>326.3817789554927</v>
       </c>
       <c r="C13" t="n">
-        <v>758.9679930064314</v>
+        <v>154.4092158344088</v>
       </c>
       <c r="D13" t="n">
-        <v>630.5480913897309</v>
+        <v>154.4092158344088</v>
       </c>
       <c r="E13" t="n">
-        <v>499.2367567991132</v>
+        <v>154.4092158344088</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4045825521234</v>
+        <v>154.4092158344088</v>
       </c>
       <c r="G13" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443597</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2526.164063369394</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.925887145058</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.483410627487</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.195833384319</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1690.381237248877</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.425704677919</v>
+        <v>985.4544125320112</v>
       </c>
       <c r="X13" t="n">
-        <v>1242.758679380253</v>
+        <v>742.8905159778163</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.312782326524</v>
+        <v>516.5477476675584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437226</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>84.27338986437226</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>799.7816978398713</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1729.406745459148</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2204.16008440569</v>
+        <v>2585.460682495985</v>
       </c>
       <c r="N14" t="n">
-        <v>2204.16008440569</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O14" t="n">
-        <v>3049.304734556502</v>
+        <v>4406.856391133498</v>
       </c>
       <c r="P14" t="n">
-        <v>3757.58401371443</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q14" t="n">
-        <v>4213.669493218613</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.669493218613</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T14" t="n">
-        <v>3995.561611715647</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3772.103573568588</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V14" t="n">
-        <v>3772.103573568588</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W14" t="n">
-        <v>3410.609095125464</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X14" t="n">
-        <v>3033.78596754974</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020627</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>91.7200328262841</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>363.4175221058752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>363.4175221058752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>1200.216330188781</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>1892.961020444882</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.1764135929075</v>
+        <v>440.5322462326803</v>
       </c>
       <c r="C16" t="n">
-        <v>786.1007217283521</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D16" t="n">
-        <v>657.6808201116517</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E16" t="n">
-        <v>526.3694855210341</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F16" t="n">
-        <v>389.4045825521233</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2182.483410627486</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.195833384319</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1690.381237248877</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1477.55843339984</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>1269.891408102174</v>
+        <v>857.040983255004</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.445511048444</v>
+        <v>630.698214944746</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437226</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>446.8768486812678</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>2092.010204276044</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>2937.154854426856</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>3645.434133584783</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>4101.519613088966</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.669493218613</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>3958.170370649444</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3410.609095125464</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
-        <v>3033.78596754974</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020627</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>91.7200328262841</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>91.7200328262841</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>91.7200328262841</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>91.7200328262841</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M18" t="n">
-        <v>1134.603232397891</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>1134.603232397891</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.1764135929076</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>786.1007217283523</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>657.6808201116517</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>526.369485521034</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>389.4045825521233</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R19" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.925887145057</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.483410627486</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.195833384319</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.381237248877</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1450.425704677918</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1269.891408102174</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1078.445511048445</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2241.002834659954</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>1848.998975929783</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1460.603226371312</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437226</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>446.8768486812678</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>1162.385156656767</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L20" t="n">
-        <v>1777.04685380867</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>2781.332955227729</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N20" t="n">
-        <v>3757.58401371443</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.58401371443</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P20" t="n">
-        <v>3757.58401371443</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q20" t="n">
-        <v>4213.669493218613</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.669493218613</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T20" t="n">
-        <v>3958.170370649444</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
-        <v>3734.712332502384</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3373.21785405926</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>2996.394726483536</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2625.954327694955</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020627</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>91.7200328262841</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>363.4175221058752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>363.4175221058752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1200.216330188781</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="M21" t="n">
-        <v>1892.961020444882</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N21" t="n">
-        <v>1892.961020444882</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1892.961020444882</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1892.961020444882</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1892.961020444882</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>896.0436848709866</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>758.9679930064314</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>630.5480913897309</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>526.3694855210342</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>389.4045825521234</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>175.967141607054</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L22" t="n">
-        <v>825.5889111443599</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2526.164063369394</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.925887145057</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2182.483410627486</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.195833384319</v>
+        <v>1542.01828375147</v>
       </c>
       <c r="V22" t="n">
-        <v>1690.381237248877</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1450.425704677919</v>
+        <v>985.4544125320114</v>
       </c>
       <c r="X22" t="n">
-        <v>1242.758679380253</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.312782326524</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.6199977150544</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.356812126726</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2453.934142057894</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>2453.934142057894</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3299.078792208707</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.358071366634</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4463.443550870817</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>99.06664067696623</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>99.06664067696623</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>99.06664067696623</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>99.06664067696623</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M24" t="n">
-        <v>1155.053178653011</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N24" t="n">
-        <v>1900.307628295564</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O24" t="n">
-        <v>1900.307628295564</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P24" t="n">
-        <v>1900.307628295564</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1900.307628295564</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.3902927216687</v>
+        <v>599.7631605785775</v>
       </c>
       <c r="C25" t="n">
-        <v>766.3146008571135</v>
+        <v>599.7631605785775</v>
       </c>
       <c r="D25" t="n">
-        <v>637.894699240413</v>
+        <v>599.7631605785775</v>
       </c>
       <c r="E25" t="n">
-        <v>506.5833646497954</v>
+        <v>433.5549547314311</v>
       </c>
       <c r="F25" t="n">
-        <v>396.7511904028056</v>
+        <v>433.5549547314311</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3910919535665</v>
+        <v>267.2979850256631</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>123.5017165338175</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820973</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2533.510671220076</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2398.27249499574</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2189.830018478169</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.542441235002</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1697.727845099559</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1457.772312528601</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.105287230935</v>
+        <v>789.9291292906432</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.659390177206</v>
+        <v>789.9291292906432</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q26" t="n">
-        <v>5021.974329743787</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6309,22 +6309,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>778.6022263052664</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C28" t="n">
-        <v>606.6296631841824</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841824</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="E28" t="n">
-        <v>440.4214573370359</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J28" t="n">
         <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6406,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1587.529878172021</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1312.677474344533</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1070.113577790339</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>843.7708094800807</v>
+        <v>516.547747667558</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
         <v>2011.818868109901</v>
@@ -6546,19 +6546,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.6048407680149</v>
+        <v>368.279487512699</v>
       </c>
       <c r="C31" t="n">
-        <v>481.6322776469309</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D31" t="n">
-        <v>481.6322776469309</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E31" t="n">
-        <v>481.6322776469309</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F31" t="n">
-        <v>309.7705034214913</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>143.5135337157234</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058286</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
         <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6640,31 +6640,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818956</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338091</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563991</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.241345563991</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.52987817202</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1312.677474344533</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1070.113577790338</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>843.7708094800805</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815411</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>91.29483210793288</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K32" t="n">
-        <v>806.8031400834319</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L32" t="n">
-        <v>1736.428187702709</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M32" t="n">
-        <v>2740.714289121767</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3716.965347608468</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4562.10999775928</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4564.741605396644</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4564.741605396644</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562895</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>98.74147506984471</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>370.4389643494358</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>370.4389643494358</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>1207.237772432342</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M33" t="n">
-        <v>1899.982462688443</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N33" t="n">
-        <v>1899.982462688443</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O33" t="n">
-        <v>1899.982462688443</v>
+        <v>1263.481480696891</v>
       </c>
       <c r="P33" t="n">
-        <v>1899.982462688443</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619909</v>
+        <v>498.1492231716433</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223612</v>
+        <v>397.5617912026645</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305861</v>
+        <v>397.5617912026645</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648936</v>
+        <v>397.5617912026645</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209083</v>
+        <v>235.8994994374495</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965943</v>
+        <v>235.8994994374495</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862027</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910042</v>
+        <v>169.7905543892527</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557546</v>
+        <v>406.314668354356</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090885</v>
+        <v>771.0005024080428</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1172.18281013756</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473202</v>
+        <v>1559.670833772862</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>1925.095475211891</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2225.691199893058</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2362.687842893086</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960995</v>
+        <v>2325.848712040483</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361584</v>
+        <v>2165.913147019843</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>1932.773281705968</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850697</v>
+        <v>1662.788315666497</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.01653234018</v>
+        <v>1391.27633073475</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1126.623409367488</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>894.2589952735177</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>678.1157094234843</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815411</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
@@ -6941,10 +6941,10 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L35" t="n">
-        <v>2099.031646519604</v>
+        <v>1461.424803215117</v>
       </c>
       <c r="M35" t="n">
-        <v>2099.031646519604</v>
+        <v>1461.424803215117</v>
       </c>
       <c r="N35" t="n">
         <v>2437.675861701818</v>
@@ -7026,13 +7026,13 @@
         <v>681.7797586762724</v>
       </c>
       <c r="N36" t="n">
-        <v>1183.784745649945</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="O36" t="n">
-        <v>1183.784745649945</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="P36" t="n">
-        <v>1899.982462688443</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="Q36" t="n">
         <v>1899.982462688443</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C37" t="n">
         <v>786.2936862223607</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305858</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648939</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209086</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965949</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H37" t="n">
-        <v>155.028449486203</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
         <v>91.29483210793288</v>
       </c>
       <c r="J37" t="n">
-        <v>184.104015691004</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557542</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090882</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M37" t="n">
         <v>1262.460299238252</v>
@@ -7111,7 +7111,7 @@
         <v>2066.015649511878</v>
       </c>
       <c r="P37" t="n">
-        <v>2391.932716792692</v>
+        <v>2391.932716792693</v>
       </c>
       <c r="Q37" t="n">
         <v>2554.250702392368</v>
@@ -7120,7 +7120,7 @@
         <v>2543.247039960995</v>
       </c>
       <c r="S37" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T37" t="n">
         <v>2201.842546468938</v>
@@ -7132,7 +7132,7 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W37" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X37" t="n">
         <v>1266.670133721406</v>
@@ -7160,7 +7160,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815411</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
@@ -7178,16 +7178,16 @@
         <v>453.8982909248284</v>
       </c>
       <c r="L38" t="n">
-        <v>1383.523338544105</v>
+        <v>574.6950366779613</v>
       </c>
       <c r="M38" t="n">
-        <v>2387.809439963164</v>
+        <v>1578.98113809702</v>
       </c>
       <c r="N38" t="n">
-        <v>3364.060498449865</v>
+        <v>2555.23219658372</v>
       </c>
       <c r="O38" t="n">
-        <v>4108.65612589246</v>
+        <v>3400.376846734533</v>
       </c>
       <c r="P38" t="n">
         <v>4108.65612589246</v>
@@ -7248,31 +7248,31 @@
         <v>91.29483210793288</v>
       </c>
       <c r="I39" t="n">
-        <v>98.74147506984471</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J39" t="n">
-        <v>98.74147506984471</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K39" t="n">
-        <v>689.2264016381843</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L39" t="n">
-        <v>689.2264016381843</v>
+        <v>928.093640190839</v>
       </c>
       <c r="M39" t="n">
-        <v>689.2264016381843</v>
+        <v>928.093640190839</v>
       </c>
       <c r="N39" t="n">
-        <v>689.2264016381843</v>
+        <v>928.093640190839</v>
       </c>
       <c r="O39" t="n">
-        <v>1183.784745649945</v>
+        <v>1817.574918202311</v>
       </c>
       <c r="P39" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.574918202311</v>
       </c>
       <c r="Q39" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R39" t="n">
         <v>1899.982462688443</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648931</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209077</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G40" t="n">
-        <v>262.789767096594</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H40" t="n">
-        <v>155.0284494862026</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
         <v>91.29483210793288</v>
       </c>
       <c r="J40" t="n">
-        <v>184.1040156910042</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557546</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090881</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238252</v>
@@ -7351,28 +7351,28 @@
         <v>2391.932716792692</v>
       </c>
       <c r="Q40" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T40" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U40" t="n">
         <v>1957.693048850696</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W40" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X40" t="n">
-        <v>1266.670133721405</v>
+        <v>1266.670133721406</v>
       </c>
       <c r="Y40" t="n">
         <v>1076.362316292602</v>
@@ -7412,22 +7412,22 @@
         <v>453.8982909248284</v>
       </c>
       <c r="K41" t="n">
-        <v>1169.406598900327</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="L41" t="n">
-        <v>2099.031646519604</v>
+        <v>1383.523338544105</v>
       </c>
       <c r="M41" t="n">
-        <v>2099.031646519604</v>
+        <v>2387.809439963164</v>
       </c>
       <c r="N41" t="n">
-        <v>2437.675861701818</v>
+        <v>3364.060498449865</v>
       </c>
       <c r="O41" t="n">
-        <v>3282.82051185263</v>
+        <v>4209.205148600677</v>
       </c>
       <c r="P41" t="n">
-        <v>3991.099791010558</v>
+        <v>4209.205148600677</v>
       </c>
       <c r="Q41" t="n">
         <v>4447.185270514741</v>
@@ -7485,31 +7485,31 @@
         <v>91.29483210793288</v>
       </c>
       <c r="I42" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J42" t="n">
-        <v>362.9923213875239</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="K42" t="n">
-        <v>362.9923213875239</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="L42" t="n">
-        <v>362.9923213875239</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="M42" t="n">
-        <v>362.9923213875239</v>
+        <v>728.6482061308695</v>
       </c>
       <c r="N42" t="n">
-        <v>362.9923213875239</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="O42" t="n">
-        <v>719.6392687871653</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="P42" t="n">
-        <v>1435.836985825663</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="Q42" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R42" t="n">
         <v>1899.982462688443</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619906</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223606</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E43" t="n">
         <v>528.8386092648933</v>
@@ -7567,13 +7567,13 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910041</v>
+        <v>184.104015691004</v>
       </c>
       <c r="K43" t="n">
         <v>445.9494722557545</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090881</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M43" t="n">
         <v>1262.460299238252</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2278.587040220165</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C44" t="n">
         <v>1887.72126111492</v>
@@ -7640,46 +7640,46 @@
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J44" t="n">
-        <v>453.8982909248284</v>
+        <v>244.3418841921674</v>
       </c>
       <c r="K44" t="n">
-        <v>1169.406598900327</v>
+        <v>959.8501921676665</v>
       </c>
       <c r="L44" t="n">
-        <v>2099.031646519604</v>
+        <v>1889.475239786943</v>
       </c>
       <c r="M44" t="n">
-        <v>2099.031646519604</v>
+        <v>2893.761341206001</v>
       </c>
       <c r="N44" t="n">
-        <v>2437.675861701817</v>
+        <v>2893.761341206001</v>
       </c>
       <c r="O44" t="n">
-        <v>3282.820511852629</v>
+        <v>3738.905991356814</v>
       </c>
       <c r="P44" t="n">
-        <v>3991.099791010557</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.18527051474</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U44" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V44" t="n">
         <v>3767.744219562895</v>
@@ -7688,10 +7688,10 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X44" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y44" t="n">
-        <v>2662.400453630241</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I45" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J45" t="n">
-        <v>362.9923213875239</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="K45" t="n">
-        <v>953.4772479558635</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="L45" t="n">
-        <v>1790.27605603877</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="M45" t="n">
-        <v>1817.963152603739</v>
+        <v>1745.21293961423</v>
       </c>
       <c r="N45" t="n">
-        <v>1817.963152603739</v>
+        <v>1745.21293961423</v>
       </c>
       <c r="O45" t="n">
-        <v>1817.963152603739</v>
+        <v>1745.21293961423</v>
       </c>
       <c r="P45" t="n">
         <v>1817.963152603739</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619904</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648931</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209077</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G46" t="n">
-        <v>262.789767096594</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H46" t="n">
-        <v>155.0284494862026</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J46" t="n">
-        <v>184.104015691004</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557544</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L46" t="n">
-        <v>835.956648909088</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M46" t="n">
         <v>1262.460299238252</v>
@@ -7819,7 +7819,7 @@
         <v>1675.269665473201</v>
       </c>
       <c r="O46" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P46" t="n">
         <v>2391.932716792692</v>
@@ -7834,7 +7834,7 @@
         <v>2409.146943361583</v>
       </c>
       <c r="T46" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U46" t="n">
         <v>1957.693048850696</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>553.9733664232987</v>
       </c>
       <c r="M2" t="n">
-        <v>65.54757303225151</v>
+        <v>553.0925868901076</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>552.9409468251218</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>71.52507883780109</v>
       </c>
       <c r="P2" t="n">
-        <v>65.69167194305098</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>62.01294749699718</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8055,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>50.51554396615302</v>
+        <v>538.0605578240092</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>42.55521653683996</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>537.0043522042174</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>295.6232587790817</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>537.4321651955045</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>47.9449520549127</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>50.03507002852091</v>
+        <v>277.6359438844881</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>203.2524428583638</v>
       </c>
       <c r="L5" t="n">
-        <v>331.2202630869663</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>330.3394835537752</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>330.1878434887894</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>318.6489068825811</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8295,7 +8295,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>315.3074544876767</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8307,16 +8307,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>213.8757852525367</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>314.6790618591721</v>
+        <v>259.9167409896189</v>
       </c>
       <c r="Q6" t="n">
-        <v>315.6552589433219</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>315.4836605458292</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>313.6571216299438</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>315.4074081527679</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>303.4543457303362</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>547.9365584046774</v>
       </c>
       <c r="P8" t="n">
-        <v>456.7228602710902</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,31 +8526,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>268.1828480767085</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>458.4075134701067</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>191.0656113368345</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8629,7 +8629,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.43329257008754</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8702,7 +8702,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>143.695351114659</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8769,19 +8769,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>796.054916016152</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1074.760401518195</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8933,10 +8933,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>516.9800901181609</v>
+        <v>517.654651463558</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8945,7 +8945,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9000,22 +9000,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>722.8388918821267</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9173,7 +9173,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9185,7 +9185,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>148.3153570964597</v>
+        <v>54.56363491934414</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,25 +9237,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M18" t="n">
-        <v>1076.514153816981</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>789.1898574464559</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9401,28 +9401,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>659.1824435961619</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377131</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,22 +9474,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>666.3063736060849</v>
       </c>
       <c r="M21" t="n">
-        <v>722.8388918821267</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9501,7 +9501,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,16 +9638,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M23" t="n">
-        <v>395.5901820218244</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9720,25 +9720,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>774.1253005797566</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>191.0760840782734</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9896,7 +9896,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>129.1350140843319</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>196.7690841472815</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10194,13 +10194,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>280.320346557523</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1003.048909524252</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10209,7 +10209,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10358,19 +10358,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>40.23355134292143</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
@@ -10431,22 +10431,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>722.8388918821267</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>206.9863830499477</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10589,13 +10589,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>333.2799255788752</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>379.3444866548641</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10674,16 +10674,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>528.4187726313924</v>
+        <v>783.0169950311082</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10826,7 +10826,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>160.3289573347774</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10835,10 +10835,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>789.5077547525855</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10896,16 +10896,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10914,16 +10914,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>522.7257725623842</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>23.13919425001781</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>379.3444866548641</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>276.5086361339561</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11145,22 +11145,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>659.3662058264945</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>383.4213315400418</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>184.0129413888537</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11303,10 +11303,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>379.3444866548631</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11315,7 +11315,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,19 +11370,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>51.06354471936819</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11391,7 +11391,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>95.25590483059625</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>356.3839468365903</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>26.8614014347018</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>113.0089626044157</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>37.01732865554035</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>26.86140143470206</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>66.44073542471715</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>356.3839468365906</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.98949189919527</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>26.86140143470224</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>37.01732865554158</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>26.86140143470159</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>118.5577190788906</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>26.8614014347018</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>77.78386948041774</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.7474116818784</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>104.4397302590399</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>41.47873147163406</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>101.5595937001312</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>60.57379220496189</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5861175088747</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.4486361530526</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>154.4969123730878</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.67339494150444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>761339.8506579032</v>
+        <v>781795.3870616835</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>772820.5859783334</v>
+        <v>783043.4581246758</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>780125.976979838</v>
+        <v>783043.4581246758</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757079.7301301198</v>
+        <v>773587.8642726337</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757079.7301301199</v>
+        <v>773587.8642726337</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>757079.7301301198</v>
+        <v>773587.8642726336</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757079.7301301198</v>
+        <v>773587.8642726337</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796129.1522564066</v>
+        <v>773587.8642726337</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773587.8642726337</v>
+        <v>773587.8642726338</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773587.8642726336</v>
+        <v>773587.8642726338</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796871.1464710165</v>
+        <v>781098.7083892021</v>
       </c>
     </row>
     <row r="13">
@@ -26317,34 +26317,34 @@
         <v>262099.2006050234</v>
       </c>
       <c r="D2" t="n">
-        <v>262099.2006050235</v>
+        <v>262099.2006050234</v>
       </c>
       <c r="E2" t="n">
-        <v>249043.4244938417</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="F2" t="n">
-        <v>249043.4244938418</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="G2" t="n">
-        <v>249043.4244938417</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="H2" t="n">
-        <v>249043.4244938417</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="I2" t="n">
-        <v>261809.0974695284</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="J2" t="n">
         <v>252913.6814118513</v>
       </c>
       <c r="K2" t="n">
-        <v>252913.6814118513</v>
+        <v>252913.6814118512</v>
       </c>
       <c r="L2" t="n">
-        <v>262099.2006050232</v>
+        <v>255513.5889906631</v>
       </c>
       <c r="M2" t="n">
-        <v>262099.2006050233</v>
+        <v>262099.2006050234</v>
       </c>
       <c r="N2" t="n">
         <v>262099.2006050234</v>
@@ -26353,7 +26353,7 @@
         <v>262099.2006050233</v>
       </c>
       <c r="P2" t="n">
-        <v>262099.2006050232</v>
+        <v>262099.2006050234</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>172809.9698797272</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.50417943929</v>
+        <v>13105.84347019891</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447392</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596185</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826556</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.81965085289</v>
+        <v>134919.6914542164</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710352</v>
+        <v>10440.51617310199</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.4641037006</v>
+        <v>8077.990108497872</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819145</v>
+        <v>166235.4618077715</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305120.5826568029</v>
+        <v>173411.7992128441</v>
       </c>
       <c r="C4" t="n">
-        <v>231198.6061196096</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>73226.69586079576</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="F4" t="n">
-        <v>73226.69586079578</v>
+        <v>43748.40045389555</v>
       </c>
       <c r="G4" t="n">
-        <v>73226.69586079576</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>73226.69586079578</v>
+        <v>43748.40045389559</v>
       </c>
       <c r="I4" t="n">
-        <v>75440.92339458491</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="J4" t="n">
+        <v>43748.40045389558</v>
+      </c>
+      <c r="K4" t="n">
         <v>43748.40045389556</v>
       </c>
-      <c r="K4" t="n">
-        <v>43748.40045389557</v>
-      </c>
       <c r="L4" t="n">
-        <v>76430.3115629073</v>
+        <v>47070.97709963577</v>
       </c>
       <c r="M4" t="n">
         <v>76430.3115629073</v>
       </c>
       <c r="N4" t="n">
-        <v>76430.31156290731</v>
+        <v>76430.3115629073</v>
       </c>
       <c r="O4" t="n">
         <v>76430.3115629073</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64979.80849863308</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.41981578407</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.60588240981</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
@@ -26497,7 +26497,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482542</v>
+        <v>78598.94787646882</v>
       </c>
       <c r="M5" t="n">
         <v>72383.20046482542</v>
@@ -26509,7 +26509,7 @@
         <v>72383.20046482542</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87780.87590849573</v>
+        <v>-149102.3769861809</v>
       </c>
       <c r="C6" t="n">
-        <v>-106082.3295098096</v>
+        <v>16171.36705493974</v>
       </c>
       <c r="D6" t="n">
-        <v>-36080.85618655026</v>
+        <v>29277.21052513868</v>
       </c>
       <c r="E6" t="n">
-        <v>-95537.16874246391</v>
+        <v>-84375.16844929862</v>
       </c>
       <c r="F6" t="n">
-        <v>108864.5447171546</v>
+        <v>131364.1881073419</v>
       </c>
       <c r="G6" t="n">
-        <v>108864.5447171546</v>
+        <v>131364.1881073418</v>
       </c>
       <c r="H6" t="n">
-        <v>108864.5447171545</v>
+        <v>131364.1881073417</v>
       </c>
       <c r="I6" t="n">
-        <v>89412.3518642681</v>
+        <v>131364.1881073417</v>
       </c>
       <c r="J6" t="n">
-        <v>89120.39911867313</v>
+        <v>-3555.503346874611</v>
       </c>
       <c r="K6" t="n">
-        <v>63266.25434242249</v>
+        <v>120923.6719342397</v>
       </c>
       <c r="L6" t="n">
-        <v>76927.22447358993</v>
+        <v>121729.0871748697</v>
       </c>
       <c r="M6" t="n">
-        <v>-34247.43240462391</v>
+        <v>-52949.77323048086</v>
       </c>
       <c r="N6" t="n">
         <v>113285.6885772906</v>
@@ -26561,7 +26561,7 @@
         <v>113285.6885772906</v>
       </c>
       <c r="P6" t="n">
-        <v>113285.6885772905</v>
+        <v>113285.6885772907</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="M2" t="n">
         <v>35.67460137263963</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="O2" t="n">
         <v>35.67460137263963</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9082206543434</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26817,7 +26817,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.57711373701729</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215237</v>
+        <v>40.56648912491835</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059908</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443191</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.83259813352674</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674966</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215237</v>
+        <v>40.56648912491835</v>
       </c>
       <c r="L4" t="n">
-        <v>30.89316888229487</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443191</v>
+        <v>584.9575882335663</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215237</v>
+        <v>40.56648912491835</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059908</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443191</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,7 +27388,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>13.37224864324452</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>91.56599848268269</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>112.3448262124788</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>166.4398532622953</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.1796496274208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>136.4298136558553</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0.4375722340088828</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>70.65457244430709</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>212.7896441635393</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>254.1295067530638</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189.4704105581366</v>
+        <v>198.7036757366577</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>126.1514739525063</v>
-      </c>
       <c r="E5" t="n">
-        <v>128.8089497992776</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>127.9647193381504</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27670,19 +27670,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,13 +27752,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>47.2994488831896</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>35.73607626854707</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>69.39256541084828</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>174.2843823982938</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>204.4895554602975</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27916,10 +27916,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>82.75941475076831</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>203.9297699357394</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.5479025439635</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.5479025439635</v>
+        <v>-2.98632585327141e-12</v>
       </c>
       <c r="P19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562234</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263947</v>
       </c>
       <c r="W35" t="n">
         <v>35.67460137263963</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263981</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263976</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="41">
@@ -30645,7 +30645,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263924</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="M43" t="n">
         <v>35.67460137263963</v>
@@ -30751,7 +30751,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="U44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.6746013726395</v>
       </c>
       <c r="V44" t="n">
         <v>35.67460137263963</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="M2" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>34.13411948177699</v>
       </c>
       <c r="P2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>19.45843602451199</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>272.4513690568595</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>26.98029760220071</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>28.11631013281968</v>
+        <v>255.7171839887869</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="L5" t="n">
-        <v>292.9082206543434</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>292.9082206543434</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>292.9082206543434</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>281.0735450723498</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>292.9082206543434</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,16 +35027,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>190.7038955303144</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>292.9082206543434</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="Q6" t="n">
-        <v>292.9082206543434</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>292.9082206543434</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>292.9082206543434</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>292.9082206543434</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>281.0735450723498</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="P8" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,31 +35246,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>435.2356237478845</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>169.1468514411333</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35349,7 +35349,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>22.01333308450102</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35422,7 +35422,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>106.3043917586349</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>773.5398293019224</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1053.417373304653</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35653,10 +35653,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>479.5488272187291</v>
+        <v>480.2233885641263</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35665,7 +35665,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>699.7421113697987</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35905,7 +35905,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>113.2827072016632</v>
+        <v>19.53098502454767</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M18" t="n">
-        <v>1053.417373304653</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>766.0179677242337</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977375</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>620.870401163539</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382813</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>643.7912868918553</v>
       </c>
       <c r="M21" t="n">
-        <v>699.7421113697987</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,16 +36358,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M23" t="n">
-        <v>358.1589191223925</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>167.9041943560511</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36616,7 +36616,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>94.10236418953542</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>175.4260559337399</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36914,13 +36914,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>981.7058813107108</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37078,19 +37078,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>2.658189532690133</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
@@ -37151,22 +37151,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>699.7421113697987</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>185.215541845119</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391037</v>
+        <v>68.16953634689307</v>
       </c>
       <c r="K34" t="n">
-        <v>264.4903601664146</v>
+        <v>238.9132464293973</v>
       </c>
       <c r="L34" t="n">
-        <v>393.9466430841758</v>
+        <v>368.3695293471584</v>
       </c>
       <c r="M34" t="n">
-        <v>430.8117680092566</v>
+        <v>405.2346542722393</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9791578130798</v>
+        <v>391.4020440760625</v>
       </c>
       <c r="O34" t="n">
-        <v>394.6929131703801</v>
+        <v>369.1157994333628</v>
       </c>
       <c r="P34" t="n">
-        <v>329.2091588695093</v>
+        <v>303.632045132492</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9575612117931</v>
+        <v>138.3804474747758</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>294.9678831462522</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>342.0648638204181</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37394,16 +37394,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>507.0757444178507</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>122.0169149021544</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37555,10 +37555,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>752.1167953965613</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,16 +37634,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>499.553882840162</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.3921559610393105</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391035</v>
       </c>
       <c r="K40" t="n">
         <v>264.4903601664146</v>
@@ -37780,25 +37780,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>342.0648638204181</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>240.3839615293581</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>636.2694253141665</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>360.2494418178196</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>264.4903601664146</v>
       </c>
       <c r="L43" t="n">
-        <v>393.9466430841754</v>
+        <v>393.9466430841758</v>
       </c>
       <c r="M43" t="n">
         <v>430.8117680092566</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>154.5929819032672</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38023,10 +38023,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>342.0648638204171</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38035,7 +38035,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>27.96676420704021</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>73.48506362576759</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
